--- a/KiCad/BOM/DUB-IY-04_BOM.xlsx
+++ b/KiCad/BOM/DUB-IY-04_BOM.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dirk\Data\Development\Arduino\RPIPico\dubsiren_RP2040\KiCad\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D1414DF2-AB81-499B-8BB6-58B565213FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76774B54-0D9F-4A40-A4AD-F7B3C7C50C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{08F56BC4-ED73-49BA-8A85-D854784B8385}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{08F56BC4-ED73-49BA-8A85-D854784B8385}"/>
   </bookViews>
   <sheets>
     <sheet name="electronic" sheetId="1" r:id="rId1"/>
     <sheet name="Screws" sheetId="2" r:id="rId2"/>
     <sheet name="3D-Print" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5354,10 +5354,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3954ED6-8F4B-413A-A1A6-66666EC4B080}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5468,7 +5471,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5477,7 +5480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4001B7-4A77-480F-9FB0-6C0398E26ACC}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
